--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H2">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I2">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J2">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N2">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O2">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P2">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q2">
-        <v>24.23830797392193</v>
+        <v>35.01471421299956</v>
       </c>
       <c r="R2">
-        <v>24.23830797392193</v>
+        <v>315.1324279169961</v>
       </c>
       <c r="S2">
-        <v>0.03931683068964488</v>
+        <v>0.04357294596953095</v>
       </c>
       <c r="T2">
-        <v>0.03931683068964488</v>
+        <v>0.05613044946434608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H3">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I3">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J3">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N3">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P3">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q3">
-        <v>52.8167387509698</v>
+        <v>78.94404901795089</v>
       </c>
       <c r="R3">
-        <v>52.8167387509698</v>
+        <v>710.4964411615581</v>
       </c>
       <c r="S3">
-        <v>0.08567375153766059</v>
+        <v>0.09823940762589768</v>
       </c>
       <c r="T3">
-        <v>0.08567375153766059</v>
+        <v>0.1265515099440063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H4">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I4">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J4">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N4">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O4">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P4">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q4">
-        <v>9.389730476319937</v>
+        <v>15.80870712999622</v>
       </c>
       <c r="R4">
-        <v>9.389730476319937</v>
+        <v>142.278364169966</v>
       </c>
       <c r="S4">
-        <v>0.01523103195800901</v>
+        <v>0.01967264211934446</v>
       </c>
       <c r="T4">
-        <v>0.01523103195800901</v>
+        <v>0.02534219846145319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H5">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I5">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J5">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N5">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O5">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P5">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q5">
-        <v>14.34598865097453</v>
+        <v>20.36482574815444</v>
       </c>
       <c r="R5">
-        <v>14.34598865097453</v>
+        <v>183.28343173339</v>
       </c>
       <c r="S5">
-        <v>0.02327055203163453</v>
+        <v>0.02534235883249925</v>
       </c>
       <c r="T5">
-        <v>0.02327055203163453</v>
+        <v>0.03264589896560157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H6">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I6">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J6">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.12039000669167</v>
+        <v>8.1511595</v>
       </c>
       <c r="N6">
-        <v>8.12039000669167</v>
+        <v>16.302319</v>
       </c>
       <c r="O6">
-        <v>0.132026049790293</v>
+        <v>0.1267029501450486</v>
       </c>
       <c r="P6">
-        <v>0.132026049790293</v>
+        <v>0.08819342236226138</v>
       </c>
       <c r="Q6">
-        <v>15.33111295285701</v>
+        <v>21.78205552421434</v>
       </c>
       <c r="R6">
-        <v>15.33111295285701</v>
+        <v>130.692333145286</v>
       </c>
       <c r="S6">
-        <v>0.02486851693195018</v>
+        <v>0.02710598529202185</v>
       </c>
       <c r="T6">
-        <v>0.02486851693195018</v>
+        <v>0.02327852912338545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H7">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J7">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N7">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O7">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P7">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q7">
-        <v>19.72447499517694</v>
+        <v>22.08630487335334</v>
       </c>
       <c r="R7">
-        <v>19.72447499517694</v>
+        <v>198.77674386018</v>
       </c>
       <c r="S7">
-        <v>0.03199496617758437</v>
+        <v>0.02748459870496174</v>
       </c>
       <c r="T7">
-        <v>0.03199496617758437</v>
+        <v>0.03540552157605913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H8">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J8">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N8">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P8">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q8">
-        <v>42.98082374153979</v>
+        <v>49.79570371304334</v>
       </c>
       <c r="R8">
-        <v>42.98082374153979</v>
+        <v>448.16133341739</v>
       </c>
       <c r="S8">
-        <v>0.06971896601717102</v>
+        <v>0.06196667761456894</v>
       </c>
       <c r="T8">
-        <v>0.06971896601717102</v>
+        <v>0.07982516189633321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H9">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J9">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N9">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O9">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P9">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q9">
-        <v>7.641106969632071</v>
+        <v>9.971691421003335</v>
       </c>
       <c r="R9">
-        <v>7.641106969632071</v>
+        <v>89.74522278903001</v>
       </c>
       <c r="S9">
-        <v>0.01239459905079665</v>
+        <v>0.01240895381493368</v>
       </c>
       <c r="T9">
-        <v>0.01239459905079665</v>
+        <v>0.01598515178435702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H10">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J10">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N10">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O10">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P10">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q10">
-        <v>11.67437490816952</v>
+        <v>12.84556393721667</v>
       </c>
       <c r="R10">
-        <v>11.67437490816952</v>
+        <v>115.61007543495</v>
       </c>
       <c r="S10">
-        <v>0.01893694156233093</v>
+        <v>0.01598525294193879</v>
       </c>
       <c r="T10">
-        <v>0.01893694156233093</v>
+        <v>0.02059212230129464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H11">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J11">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.12039000669167</v>
+        <v>8.1511595</v>
       </c>
       <c r="N11">
-        <v>8.12039000669167</v>
+        <v>16.302319</v>
       </c>
       <c r="O11">
-        <v>0.132026049790293</v>
+        <v>0.1267029501450486</v>
       </c>
       <c r="P11">
-        <v>0.132026049790293</v>
+        <v>0.08819342236226138</v>
       </c>
       <c r="Q11">
-        <v>12.47604223909575</v>
+        <v>13.739512941605</v>
       </c>
       <c r="R11">
-        <v>12.47604223909575</v>
+        <v>82.43707764963001</v>
       </c>
       <c r="S11">
-        <v>0.02023732188398365</v>
+        <v>0.01709769931036488</v>
       </c>
       <c r="T11">
-        <v>0.02023732188398365</v>
+        <v>0.01468344673884122</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H12">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I12">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J12">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N12">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O12">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P12">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q12">
-        <v>84.7175104377876</v>
+        <v>7.217771954614444</v>
       </c>
       <c r="R12">
-        <v>84.7175104377876</v>
+        <v>64.95994759153001</v>
       </c>
       <c r="S12">
-        <v>0.1374198239379729</v>
+        <v>0.008981926440571943</v>
       </c>
       <c r="T12">
-        <v>0.1374198239379729</v>
+        <v>0.01157047238709861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H13">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I13">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J13">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N13">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P13">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q13">
-        <v>184.6045780604535</v>
+        <v>16.27316274864611</v>
       </c>
       <c r="R13">
-        <v>184.6045780604535</v>
+        <v>146.458464737815</v>
       </c>
       <c r="S13">
-        <v>0.2994461060543153</v>
+        <v>0.0202506191222001</v>
       </c>
       <c r="T13">
-        <v>0.2994461060543153</v>
+        <v>0.02608674552450991</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H14">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I14">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J14">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N14">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O14">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P14">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q14">
-        <v>32.81889934278829</v>
+        <v>3.258734092972777</v>
       </c>
       <c r="R14">
-        <v>32.81889934278829</v>
+        <v>29.328606836755</v>
       </c>
       <c r="S14">
-        <v>0.05323536239696187</v>
+        <v>0.004055227859305363</v>
       </c>
       <c r="T14">
-        <v>0.05323536239696187</v>
+        <v>0.005223924096899852</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H15">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I15">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J15">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N15">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O15">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P15">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q15">
-        <v>50.14196719453036</v>
+        <v>4.197911405230554</v>
       </c>
       <c r="R15">
-        <v>50.14196719453036</v>
+        <v>37.78120264707499</v>
       </c>
       <c r="S15">
-        <v>0.0813350187956246</v>
+        <v>0.005223957155048821</v>
       </c>
       <c r="T15">
-        <v>0.0813350187956246</v>
+        <v>0.00672947528726696</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.652545</v>
+      </c>
+      <c r="I16">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J16">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.1511595</v>
+      </c>
+      <c r="N16">
+        <v>16.302319</v>
+      </c>
+      <c r="O16">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P16">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q16">
+        <v>4.490052625309167</v>
+      </c>
+      <c r="R16">
+        <v>26.940315751855</v>
+      </c>
+      <c r="S16">
+        <v>0.005587502992393746</v>
+      </c>
+      <c r="T16">
+        <v>0.004798528802187633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.481638</v>
+      </c>
+      <c r="H17">
+        <v>1.444914</v>
+      </c>
+      <c r="I17">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J17">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.10301133333333</v>
+      </c>
+      <c r="N17">
+        <v>39.309034</v>
+      </c>
+      <c r="O17">
+        <v>0.2036753411238414</v>
+      </c>
+      <c r="P17">
+        <v>0.2126567538160978</v>
+      </c>
+      <c r="Q17">
+        <v>6.310908172564</v>
+      </c>
+      <c r="R17">
+        <v>56.798173553076</v>
+      </c>
+      <c r="S17">
+        <v>0.007853408688388255</v>
+      </c>
+      <c r="T17">
+        <v>0.01011672150454735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.481638</v>
+      </c>
+      <c r="H18">
+        <v>1.444914</v>
+      </c>
+      <c r="I18">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J18">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N18">
+        <v>88.626007</v>
+      </c>
+      <c r="O18">
+        <v>0.4592056932299318</v>
+      </c>
+      <c r="P18">
+        <v>0.479455154057023</v>
+      </c>
+      <c r="Q18">
+        <v>14.228550919822</v>
+      </c>
+      <c r="R18">
+        <v>128.056958278398</v>
+      </c>
+      <c r="S18">
+        <v>0.01770626704769591</v>
+      </c>
+      <c r="T18">
+        <v>0.02280912400134441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.481638</v>
+      </c>
+      <c r="H19">
+        <v>1.444914</v>
+      </c>
+      <c r="I19">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J19">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.915846333333334</v>
+      </c>
+      <c r="N19">
+        <v>17.747539</v>
+      </c>
+      <c r="O19">
+        <v>0.0919568784095198</v>
+      </c>
+      <c r="P19">
+        <v>0.09601187431786275</v>
+      </c>
+      <c r="Q19">
+        <v>2.849296396294</v>
+      </c>
+      <c r="R19">
+        <v>25.64366756664599</v>
+      </c>
+      <c r="S19">
+        <v>0.003545716157260679</v>
+      </c>
+      <c r="T19">
+        <v>0.00456757368939905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.481638</v>
+      </c>
+      <c r="H20">
+        <v>1.444914</v>
+      </c>
+      <c r="I20">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J20">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.620811666666666</v>
+      </c>
+      <c r="N20">
+        <v>22.862435</v>
+      </c>
+      <c r="O20">
+        <v>0.1184591370916581</v>
+      </c>
+      <c r="P20">
+        <v>0.123682795446755</v>
+      </c>
+      <c r="Q20">
+        <v>3.670472489509999</v>
+      </c>
+      <c r="R20">
+        <v>33.03425240559</v>
+      </c>
+      <c r="S20">
+        <v>0.004567602594017235</v>
+      </c>
+      <c r="T20">
+        <v>0.005883962648657708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.481638</v>
+      </c>
+      <c r="H21">
+        <v>1.444914</v>
+      </c>
+      <c r="I21">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J21">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.1511595</v>
+      </c>
+      <c r="N21">
+        <v>16.302319</v>
+      </c>
+      <c r="O21">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P21">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q21">
+        <v>3.925908159261</v>
+      </c>
+      <c r="R21">
+        <v>23.555448955566</v>
+      </c>
+      <c r="S21">
+        <v>0.004885471378238788</v>
+      </c>
+      <c r="T21">
+        <v>0.004195626409982264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.100768</v>
+      </c>
+      <c r="H22">
+        <v>14.201536</v>
+      </c>
+      <c r="I22">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J22">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.10301133333333</v>
+      </c>
+      <c r="N22">
+        <v>39.309034</v>
+      </c>
+      <c r="O22">
+        <v>0.2036753411238414</v>
+      </c>
+      <c r="P22">
+        <v>0.2126567538160978</v>
+      </c>
+      <c r="Q22">
+        <v>93.04144357937068</v>
+      </c>
+      <c r="R22">
+        <v>558.2486614762241</v>
+      </c>
+      <c r="S22">
+        <v>0.1157824613203886</v>
+      </c>
+      <c r="T22">
+        <v>0.09943358888404662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.100768</v>
+      </c>
+      <c r="H23">
+        <v>14.201536</v>
+      </c>
+      <c r="I23">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J23">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N23">
+        <v>88.626007</v>
+      </c>
+      <c r="O23">
+        <v>0.4592056932299318</v>
+      </c>
+      <c r="P23">
+        <v>0.479455154057023</v>
+      </c>
+      <c r="Q23">
+        <v>209.7709048244587</v>
+      </c>
+      <c r="R23">
+        <v>1258.625428946752</v>
+      </c>
+      <c r="S23">
+        <v>0.2610427218195691</v>
+      </c>
+      <c r="T23">
+        <v>0.2241826126908292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="H16">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="I16">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="J16">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.12039000669167</v>
-      </c>
-      <c r="N16">
-        <v>8.12039000669167</v>
-      </c>
-      <c r="O16">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="P16">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="Q16">
-        <v>53.58516456693108</v>
-      </c>
-      <c r="R16">
-        <v>53.58516456693108</v>
-      </c>
-      <c r="S16">
-        <v>0.08692021097435919</v>
-      </c>
-      <c r="T16">
-        <v>0.08692021097435919</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.100768</v>
+      </c>
+      <c r="H24">
+        <v>14.201536</v>
+      </c>
+      <c r="I24">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J24">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.915846333333334</v>
+      </c>
+      <c r="N24">
+        <v>17.747539</v>
+      </c>
+      <c r="O24">
+        <v>0.0919568784095198</v>
+      </c>
+      <c r="P24">
+        <v>0.09601187431786275</v>
+      </c>
+      <c r="Q24">
+        <v>42.00705233665067</v>
+      </c>
+      <c r="R24">
+        <v>252.042314019904</v>
+      </c>
+      <c r="S24">
+        <v>0.05227433845867561</v>
+      </c>
+      <c r="T24">
+        <v>0.04489302628575364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.100768</v>
+      </c>
+      <c r="H25">
+        <v>14.201536</v>
+      </c>
+      <c r="I25">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J25">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.620811666666666</v>
+      </c>
+      <c r="N25">
+        <v>22.862435</v>
+      </c>
+      <c r="O25">
+        <v>0.1184591370916581</v>
+      </c>
+      <c r="P25">
+        <v>0.123682795446755</v>
+      </c>
+      <c r="Q25">
+        <v>54.11361561669333</v>
+      </c>
+      <c r="R25">
+        <v>324.68169370016</v>
+      </c>
+      <c r="S25">
+        <v>0.06733996556815405</v>
+      </c>
+      <c r="T25">
+        <v>0.0578313362439341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.100768</v>
+      </c>
+      <c r="H26">
+        <v>14.201536</v>
+      </c>
+      <c r="I26">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J26">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.1511595</v>
+      </c>
+      <c r="N26">
+        <v>16.302319</v>
+      </c>
+      <c r="O26">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P26">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q26">
+        <v>57.879492540496</v>
+      </c>
+      <c r="R26">
+        <v>231.517970161984</v>
+      </c>
+      <c r="S26">
+        <v>0.07202629117202938</v>
+      </c>
+      <c r="T26">
+        <v>0.04123729128786481</v>
       </c>
     </row>
   </sheetData>
